--- a/Team 98 burndown chart (1).xlsx
+++ b/Team 98 burndown chart (1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8112"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -111,6 +116,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -123,7 +129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,9 +175,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -217,7 +222,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -373,7 +377,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-420C-4A71-9971-542ECB6C951A}"/>
             </c:ext>
@@ -562,7 +566,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-420C-4A71-9971-542ECB6C951A}"/>
             </c:ext>
@@ -619,7 +623,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -725,7 +728,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -780,7 +782,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -854,9 +855,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -898,7 +899,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1006,7 +1006,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DFFC-4379-83D1-635B95F1AFF1}"/>
             </c:ext>
@@ -1087,7 +1087,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-DFFC-4379-83D1-635B95F1AFF1}"/>
             </c:ext>
@@ -1139,7 +1139,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1245,7 +1244,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1300,7 +1298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1374,9 +1371,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1421,7 +1418,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1577,7 +1573,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-420C-4A71-9971-542ECB6C951A}"/>
             </c:ext>
@@ -1729,11 +1725,20 @@
                 <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-420C-4A71-9971-542ECB6C951A}"/>
             </c:ext>
@@ -1790,7 +1795,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1896,7 +1900,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1951,7 +1954,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2044,7 +2046,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2084,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2122,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2408,25 +2410,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="29.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="29.85546875" style="1"/>
+    <col min="1" max="16384" width="29.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2437,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -2448,25 +2450,25 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2474,14 +2476,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>19</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -2521,7 +2523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -2557,7 +2559,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -2566,7 +2568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>12</v>
       </c>
@@ -2575,7 +2577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -2593,7 +2595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>9</v>
       </c>
@@ -2602,7 +2604,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -2611,7 +2613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -2620,7 +2622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -2629,7 +2631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -2638,7 +2640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -2647,35 +2649,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="8">
+      <c r="C30" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="8">
+      <c r="C31" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="8">
+      <c r="C32" s="4">
         <v>10</v>
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -2687,21 +2689,21 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2713,7 +2715,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>20</v>
       </c>
@@ -2725,7 +2727,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>19</v>
       </c>
@@ -2735,7 +2737,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>18</v>
       </c>
@@ -2745,134 +2747,146 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>17</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="8">
+      <c r="C41" s="4">
         <v>30</v>
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>16</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="8">
+      <c r="C42" s="4">
         <v>25</v>
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>15</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="8">
+      <c r="C43" s="4">
         <v>25</v>
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>14</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="8">
+      <c r="C44" s="4">
         <v>25</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>13</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="8">
+      <c r="C45" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>12</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="8">
+      <c r="C46" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>11</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="8">
+      <c r="C47" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10</v>
       </c>
       <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>9</v>
       </c>
       <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>8</v>
       </c>
       <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>7</v>
       </c>
       <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6</v>
       </c>
       <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>5</v>
       </c>
       <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>4</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>3</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -2880,104 +2894,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="3"/>
     </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="3"/>
     </row>
   </sheetData>
